--- a/Sorption Experiments/RaFHY_pH3/RaFHY_ph3_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH3/RaFHY_ph3_NoScript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\RaFHY_pH3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaFHY_pH3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -10275,11 +10275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11738,8 +11738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K4:K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RaFHY_pH3/RaFHY_ph3_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH3/RaFHY_ph3_NoScript.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -1014,9 +1013,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,7 +1112,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7634,10 +7629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8407,7 +8401,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11116,12 +11109,6 @@
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12580,11 +12567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/RaFHY_pH3/RaFHY_ph3_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH3/RaFHY_ph3_NoScript.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="138">
   <si>
     <t>Parameters</t>
   </si>
@@ -523,7 +523,13 @@
     <t>Nsamples</t>
   </si>
   <si>
-    <t>One sampe below detection</t>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
+  </si>
+  <si>
+    <t>One sample below detection</t>
   </si>
 </sst>
 </file>
@@ -719,147 +725,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -913,7 +779,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1076,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211952632"/>
-        <c:axId val="211953024"/>
+        <c:axId val="220039680"/>
+        <c:axId val="220041248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211952632"/>
+        <c:axId val="220039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,19 +967,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211953024"/>
+        <c:crossAx val="220041248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211953024"/>
+        <c:axId val="220041248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,21 +1000,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211952632"/>
+        <c:crossAx val="220039680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1379,11 +1241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211954592"/>
-        <c:axId val="211951456"/>
+        <c:axId val="216072968"/>
+        <c:axId val="216071400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211954592"/>
+        <c:axId val="216072968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,12 +1273,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211951456"/>
+        <c:crossAx val="216071400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211951456"/>
+        <c:axId val="216071400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211954592"/>
+        <c:crossAx val="216072968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13997,15 +13859,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -14037,10 +13903,16 @@
         <v>122</v>
       </c>
       <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14081,14 +13953,22 @@
         <v>1.4142135623730963E-2</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!I3:I4)</f>
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -14129,11 +14009,19 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -14174,11 +14062,19 @@
         <v>3.2145502536643167E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -14219,11 +14115,19 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -14264,11 +14168,19 @@
         <v>7.071067811865471E-2</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E17)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I17)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -14309,6 +14221,14 @@
         <v>3.3040379335998273E-2</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E18:E21)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E18:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I18:I21)</f>
         <v>4</v>
       </c>
